--- a/data/getAddProductSku_api.xlsx
+++ b/data/getAddProductSku_api.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
